--- a/results/mp/tinybert/corona/confidence/210/stop-words-masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-masking-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="116">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,84 +43,90 @@
     <t>arrested</t>
   </si>
   <si>
+    <t>killed</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
     <t>recession</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>shame</t>
+    <t>die</t>
+  </si>
+  <si>
+    <t>fears</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>falling</t>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
+    <t>isolation</t>
+  </si>
+  <si>
     <t>risk</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>shortage</t>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>stop</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
@@ -130,22 +136,28 @@
     <t>beauty</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>friend</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>happy</t>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>strong</t>
   </si>
   <si>
     <t>great</t>
@@ -163,7 +175,7 @@
     <t>thank</t>
   </si>
   <si>
-    <t>strong</t>
+    <t>safe</t>
   </si>
   <si>
     <t>creative</t>
@@ -172,43 +184,43 @@
     <t>positive</t>
   </si>
   <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>healthy</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>safety</t>
+    <t>well</t>
   </si>
   <si>
     <t>boost</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>ensure</t>
+    <t>dear</t>
   </si>
   <si>
     <t>fresh</t>
@@ -217,127 +229,127 @@
     <t>hand</t>
   </si>
   <si>
-    <t>dear</t>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>super</t>
   </si>
   <si>
     <t>worth</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>ready</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>giving</t>
   </si>
   <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
+    <t>key</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>key</t>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>increased</t>
   </si>
   <si>
     <t>give</t>
   </si>
   <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>helping</t>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>home</t>
   </si>
   <si>
     <t>online</t>
   </si>
   <si>
-    <t>essential</t>
+    <t>retail</t>
   </si>
   <si>
     <t>make</t>
   </si>
   <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>shopping</t>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>store</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
     <t>stock</t>
   </si>
   <si>
     <t>grocery</t>
   </si>
   <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>consumer</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>supermarket</t>
   </si>
   <si>
     <t>19</t>
@@ -707,7 +719,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q77"/>
+  <dimension ref="A1:Q79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -715,10 +727,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -797,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -826,38 +838,38 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9411764705882353</v>
+        <v>1</v>
       </c>
       <c r="C4">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4">
+        <v>0.9696969696969697</v>
+      </c>
+      <c r="L4">
         <v>32</v>
       </c>
-      <c r="D4">
+      <c r="M4">
         <v>32</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4">
-        <v>0.9491525423728814</v>
-      </c>
-      <c r="L4">
-        <v>56</v>
-      </c>
-      <c r="M4">
-        <v>56</v>
-      </c>
       <c r="N4">
         <v>1</v>
       </c>
@@ -868,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -876,13 +888,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8055555555555556</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -894,19 +906,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K5">
-        <v>0.9473684210526315</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L5">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="M5">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -918,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -926,13 +938,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -944,19 +956,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K6">
-        <v>0.9444444444444444</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L6">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="M6">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -968,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -976,13 +988,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7307692307692307</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -994,19 +1006,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K7">
-        <v>0.9393939393939394</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1018,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1026,13 +1038,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6986301369863014</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C8">
-        <v>204</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>204</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1044,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8">
-        <v>0.9347826086956522</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L8">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="M8">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1068,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1076,13 +1088,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6206896551724138</v>
+        <v>0.6712328767123288</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1094,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K9">
-        <v>0.9230769230769231</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1126,13 +1138,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5526315789473685</v>
+        <v>0.65</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1144,19 +1156,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K10">
-        <v>0.8660714285714286</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M10">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1168,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1176,13 +1188,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5483870967741935</v>
+        <v>0.64</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1194,19 +1206,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K11">
-        <v>0.8518518518518519</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L11">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M11">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1218,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1226,13 +1238,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5384615384615384</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C12">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1244,19 +1256,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K12">
-        <v>0.8333333333333334</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L12">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="M12">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1268,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1276,13 +1288,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4666666666666667</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C13">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1294,19 +1306,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K13">
-        <v>0.8292682926829268</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L13">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="M13">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1318,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1326,7 +1338,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4516129032258064</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C14">
         <v>14</v>
@@ -1344,19 +1356,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K14">
-        <v>0.828125</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L14">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="M14">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1368,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1376,37 +1388,37 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4054054054054054</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="C15">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>15</v>
       </c>
-      <c r="D15">
-        <v>15</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>22</v>
-      </c>
       <c r="J15" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K15">
-        <v>0.8181818181818182</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L15">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="M15">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1418,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1426,13 +1438,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.36</v>
+        <v>0.5</v>
       </c>
       <c r="C16">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1444,19 +1456,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K16">
-        <v>0.8125</v>
+        <v>0.8203125</v>
       </c>
       <c r="L16">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="M16">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1468,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1476,13 +1488,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.358974358974359</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1494,19 +1506,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K17">
-        <v>0.8103448275862069</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="L17">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="M17">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1518,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1526,13 +1538,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.35</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="C18">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D18">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1544,19 +1556,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K18">
-        <v>0.8085106382978723</v>
+        <v>0.8125</v>
       </c>
       <c r="L18">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M18">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1568,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1576,13 +1588,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3333333333333333</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="C19">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="D19">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1594,19 +1606,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>344</v>
+        <v>22</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K19">
-        <v>0.7887323943661971</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L19">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="M19">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1618,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1626,13 +1638,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3333333333333333</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C20">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D20">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1644,19 +1656,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K20">
-        <v>0.7857142857142857</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L20">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M20">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1668,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1676,13 +1688,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3174603174603174</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C21">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="D21">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1694,19 +1706,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K21">
-        <v>0.7777777777777778</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L21">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="M21">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1718,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1726,13 +1738,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3154362416107382</v>
+        <v>0.3466666666666667</v>
       </c>
       <c r="C22">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D22">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1744,19 +1756,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K22">
-        <v>0.775</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L22">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="M22">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1768,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1776,38 +1788,38 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2857142857142857</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23">
+        <v>20</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>39</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K23">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="L23">
         <v>22</v>
       </c>
-      <c r="D23">
+      <c r="M23">
         <v>22</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>55</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K23">
-        <v>0.746031746031746</v>
-      </c>
-      <c r="L23">
-        <v>47</v>
-      </c>
-      <c r="M23">
-        <v>47</v>
-      </c>
       <c r="N23">
         <v>1</v>
       </c>
@@ -1818,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1826,13 +1838,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2727272727272727</v>
+        <v>0.3386243386243386</v>
       </c>
       <c r="C24">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="D24">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1844,19 +1856,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K24">
-        <v>0.7452830188679245</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L24">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="M24">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1868,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1876,13 +1888,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2711864406779661</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C25">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="D25">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1894,19 +1906,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>43</v>
+        <v>344</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K25">
-        <v>0.7450980392156863</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L25">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M25">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1918,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1926,13 +1938,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2333333333333333</v>
+        <v>0.3154362416107382</v>
       </c>
       <c r="C26">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D26">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1944,19 +1956,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K26">
-        <v>0.7391304347826086</v>
+        <v>0.7375</v>
       </c>
       <c r="L26">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="M26">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1968,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1976,13 +1988,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2203389830508475</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="C27">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D27">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1994,19 +2006,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K27">
-        <v>0.7021276595744681</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L27">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="M27">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2018,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2026,13 +2038,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1825396825396825</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C28">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D28">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2044,19 +2056,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>206</v>
+        <v>55</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K28">
-        <v>0.675</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L28">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="M28">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2068,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>52</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2076,13 +2088,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1625</v>
+        <v>0.2</v>
       </c>
       <c r="C29">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D29">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2094,19 +2106,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K29">
-        <v>0.6666666666666666</v>
+        <v>0.7075471698113207</v>
       </c>
       <c r="L29">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="M29">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2118,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2126,89 +2138,137 @@
         <v>35</v>
       </c>
       <c r="B30">
+        <v>0.1865079365079365</v>
+      </c>
+      <c r="C30">
+        <v>47</v>
+      </c>
+      <c r="D30">
+        <v>47</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>205</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K30">
+        <v>0.7021276595744681</v>
+      </c>
+      <c r="L30">
+        <v>66</v>
+      </c>
+      <c r="M30">
+        <v>66</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>0.1555555555555556</v>
+      </c>
+      <c r="C31">
+        <v>14</v>
+      </c>
+      <c r="D31">
+        <v>14</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>76</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K31">
+        <v>0.6956521739130435</v>
+      </c>
+      <c r="L31">
+        <v>16</v>
+      </c>
+      <c r="M31">
+        <v>16</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
         <v>0.09115281501340483</v>
       </c>
-      <c r="C30">
+      <c r="C32">
         <v>34</v>
       </c>
-      <c r="D30">
+      <c r="D32">
         <v>34</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30">
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
         <v>339</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K30">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L30">
-        <v>16</v>
-      </c>
-      <c r="M30">
-        <v>16</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K31">
-        <v>0.6458333333333334</v>
-      </c>
-      <c r="L31">
-        <v>31</v>
-      </c>
-      <c r="M31">
-        <v>31</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K32">
-        <v>0.6266318537859008</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L32">
-        <v>240</v>
+        <v>19</v>
       </c>
       <c r="M32">
-        <v>240</v>
+        <v>19</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2220,47 +2280,47 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>143</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K33">
-        <v>0.6071428571428571</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L33">
+        <v>31</v>
+      </c>
+      <c r="M33">
+        <v>31</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
         <v>17</v>
-      </c>
-      <c r="M33">
-        <v>17</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>11</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K34">
-        <v>0.5833333333333334</v>
+        <v>0.6266318537859008</v>
       </c>
       <c r="L34">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="M34">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2272,21 +2332,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>10</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K35">
-        <v>0.5714285714285714</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L35">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M35">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2298,21 +2358,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K36">
-        <v>0.5617647058823529</v>
+        <v>0.58</v>
       </c>
       <c r="L36">
-        <v>191</v>
+        <v>29</v>
       </c>
       <c r="M36">
-        <v>191</v>
+        <v>29</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2324,21 +2384,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>149</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K37">
-        <v>0.5588235294117647</v>
+        <v>0.575</v>
       </c>
       <c r="L37">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M37">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2350,21 +2410,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K38">
-        <v>0.5384615384615384</v>
+        <v>0.5676470588235294</v>
       </c>
       <c r="L38">
-        <v>14</v>
+        <v>193</v>
       </c>
       <c r="M38">
-        <v>14</v>
+        <v>193</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2376,21 +2436,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>12</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K39">
-        <v>0.5348837209302325</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L39">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M39">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2402,21 +2462,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K40">
-        <v>0.525</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L40">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M40">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2428,21 +2488,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K41">
-        <v>0.52</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="L41">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="M41">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2454,21 +2514,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K42">
-        <v>0.5168539325842697</v>
+        <v>0.5348837209302325</v>
       </c>
       <c r="L42">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="M42">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2480,21 +2540,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K43">
-        <v>0.5118644067796611</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="L43">
-        <v>151</v>
+        <v>23</v>
       </c>
       <c r="M43">
-        <v>151</v>
+        <v>23</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2506,21 +2566,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>144</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K44">
-        <v>0.4888888888888889</v>
+        <v>0.5104602510460251</v>
       </c>
       <c r="L44">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="M44">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2532,21 +2592,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>23</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K45">
-        <v>0.4848484848484849</v>
+        <v>0.5050847457627119</v>
       </c>
       <c r="L45">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="M45">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2558,21 +2618,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>17</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K46">
-        <v>0.4769230769230769</v>
+        <v>0.5</v>
       </c>
       <c r="L46">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="M46">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2584,21 +2644,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K47">
-        <v>0.4657534246575342</v>
+        <v>0.5</v>
       </c>
       <c r="L47">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="M47">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2610,21 +2670,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K48">
-        <v>0.4571428571428571</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="L48">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M48">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2636,21 +2696,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K49">
-        <v>0.453125</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L49">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="M49">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2662,21 +2722,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K50">
-        <v>0.4523809523809524</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="L50">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M50">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2688,21 +2748,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K51">
-        <v>0.4518828451882845</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="L51">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="M51">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2714,21 +2774,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>131</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K52">
-        <v>0.425</v>
+        <v>0.45</v>
       </c>
       <c r="L52">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M52">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2740,21 +2800,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K53">
-        <v>0.4230769230769231</v>
+        <v>0.4375</v>
       </c>
       <c r="L53">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M53">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2766,21 +2826,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K54">
-        <v>0.4193548387096774</v>
+        <v>0.4307692307692308</v>
       </c>
       <c r="L54">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M54">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2792,21 +2852,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K55">
-        <v>0.3714285714285714</v>
+        <v>0.425531914893617</v>
       </c>
       <c r="L55">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M55">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2818,21 +2878,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K56">
-        <v>0.3617021276595745</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="L56">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="M56">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2844,21 +2904,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K57">
-        <v>0.3278688524590164</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L57">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="M57">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2870,21 +2930,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K58">
-        <v>0.2542372881355932</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="L58">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M58">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2896,15 +2956,15 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K59">
-        <v>0.2222222222222222</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="L59">
         <v>16</v>
@@ -2922,21 +2982,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K60">
-        <v>0.2203389830508475</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="L60">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M60">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2948,21 +3008,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K61">
-        <v>0.1220095693779904</v>
+        <v>0.2131147540983606</v>
       </c>
       <c r="L61">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M61">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2974,21 +3034,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>367</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K62">
-        <v>0.1181102362204724</v>
+        <v>0.1338582677165354</v>
       </c>
       <c r="L62">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M62">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3000,21 +3060,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K63">
-        <v>0.1090909090909091</v>
+        <v>0.1033653846153846</v>
       </c>
       <c r="L63">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="M63">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3026,21 +3086,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>147</v>
+        <v>373</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K64">
-        <v>0.1076923076923077</v>
+        <v>0.1</v>
       </c>
       <c r="L64">
+        <v>13</v>
+      </c>
+      <c r="M64">
         <v>14</v>
-      </c>
-      <c r="M64">
-        <v>15</v>
       </c>
       <c r="N64">
         <v>0.93</v>
@@ -3052,21 +3112,21 @@
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K65">
-        <v>0.09615384615384616</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="L65">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M65">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3078,21 +3138,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>376</v>
+        <v>195</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K66">
-        <v>0.09302325581395349</v>
+        <v>0.08851674641148326</v>
       </c>
       <c r="L66">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="M66">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3104,21 +3164,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>195</v>
+        <v>381</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K67">
-        <v>0.07158836689038031</v>
+        <v>0.0880503144654088</v>
       </c>
       <c r="L67">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="M67">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -3130,21 +3190,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>830</v>
+        <v>145</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K68">
-        <v>0.06511627906976744</v>
+        <v>0.07878787878787878</v>
       </c>
       <c r="L68">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M68">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -3156,47 +3216,47 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>201</v>
+        <v>152</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K69">
-        <v>0.0460122699386503</v>
+        <v>0.0755813953488372</v>
       </c>
       <c r="L69">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M69">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N69">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>311</v>
+        <v>159</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K70">
-        <v>0.04328523862375139</v>
+        <v>0.07046979865771812</v>
       </c>
       <c r="L70">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="M70">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -3208,47 +3268,47 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>862</v>
+        <v>831</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K71">
-        <v>0.02927580893682588</v>
+        <v>0.06511627906976744</v>
       </c>
       <c r="L71">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M71">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N71">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>630</v>
+        <v>201</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K72">
-        <v>0.02880658436213992</v>
+        <v>0.05504587155963303</v>
       </c>
       <c r="L72">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M72">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -3260,21 +3320,21 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>472</v>
+        <v>309</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K73">
-        <v>0.02768166089965398</v>
+        <v>0.04994450610432852</v>
       </c>
       <c r="L73">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="M73">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -3286,111 +3346,163 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K74">
-        <v>0.02707749766573296</v>
+        <v>0.03117782909930716</v>
       </c>
       <c r="L74">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="M74">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="N74">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="O74">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P74" t="b">
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>2084</v>
+        <v>839</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K75">
-        <v>0.01756198347107438</v>
+        <v>0.03081664098613251</v>
       </c>
       <c r="L75">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M75">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N75">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O75">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q75">
-        <v>951</v>
+        <v>629</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K76">
-        <v>0.01386202450032237</v>
+        <v>0.02618045815801777</v>
       </c>
       <c r="L76">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="M76">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="N76">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="O76">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P76" t="b">
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>3059</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K77">
-        <v>0.006879299562226391</v>
+        <v>0.01861427094105481</v>
       </c>
       <c r="L77">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M77">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N77">
+        <v>0.95</v>
+      </c>
+      <c r="O77">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P77" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="78" spans="10:17">
+      <c r="J78" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K78">
+        <v>0.0145114479200258</v>
+      </c>
+      <c r="L78">
+        <v>45</v>
+      </c>
+      <c r="M78">
+        <v>51</v>
+      </c>
+      <c r="N78">
         <v>0.88</v>
       </c>
-      <c r="O77">
+      <c r="O78">
         <v>0.12</v>
       </c>
-      <c r="P77" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q77">
-        <v>3176</v>
+      <c r="P78" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="79" spans="10:17">
+      <c r="J79" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K79">
+        <v>0.006576886940181647</v>
+      </c>
+      <c r="L79">
+        <v>21</v>
+      </c>
+      <c r="M79">
+        <v>29</v>
+      </c>
+      <c r="N79">
+        <v>0.72</v>
+      </c>
+      <c r="O79">
+        <v>0.28</v>
+      </c>
+      <c r="P79" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>3172</v>
       </c>
     </row>
   </sheetData>
